--- a/data/supp_tables_dataset_AgroLux_paper_v5.xlsx
+++ b/data/supp_tables_dataset_AgroLux_paper_v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="221">
   <si>
     <t xml:space="preserve">Supplemental Tables - Jutras et al. 2021</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Final OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lux OD</t>
   </si>
   <si>
     <t xml:space="preserve">A1</t>
@@ -1086,7 +1089,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,14 +1097,14 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,31 +1129,31 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -2984,12 +2987,12 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3032,22 +3035,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,16 +3078,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4631,22 +4634,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,28 +4679,28 @@
         <v>39</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -4711,7 +4714,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>2</v>
@@ -4749,7 +4752,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>2</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>2</v>
@@ -4827,7 +4830,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>2</v>
@@ -4866,7 +4869,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>2</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>2</v>
@@ -4944,7 +4947,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>2</v>
@@ -4983,7 +4986,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>2</v>
@@ -5022,7 +5025,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>2</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>2</v>
@@ -5100,7 +5103,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>2</v>
@@ -5139,7 +5142,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" s="17" t="n">
         <v>2</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" s="17" t="n">
         <v>2</v>
@@ -5217,7 +5220,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>2</v>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="17" t="n">
         <v>2</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="17" t="n">
         <v>2</v>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="17" t="n">
         <v>2</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>2</v>
@@ -5412,7 +5415,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>2</v>
@@ -5451,7 +5454,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>2</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>2</v>
@@ -5529,7 +5532,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>2</v>
@@ -5568,7 +5571,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>2</v>
@@ -5607,7 +5610,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>2</v>
@@ -5646,7 +5649,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>5</v>
@@ -5685,7 +5688,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>5</v>
@@ -5724,7 +5727,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>5</v>
@@ -5763,7 +5766,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36" s="17" t="n">
         <v>5</v>
@@ -5802,7 +5805,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B37" s="17" t="n">
         <v>5</v>
@@ -5841,7 +5844,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="17" t="n">
         <v>5</v>
@@ -5880,7 +5883,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="17" t="n">
         <v>5</v>
@@ -5919,7 +5922,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B40" s="17" t="n">
         <v>5</v>
@@ -5958,7 +5961,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B41" s="17" t="n">
         <v>5</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="17" t="n">
         <v>5</v>
@@ -6036,7 +6039,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B43" s="17" t="n">
         <v>5</v>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" s="17" t="n">
         <v>5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B45" s="17" t="n">
         <v>5</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="17" t="n">
         <v>5</v>
@@ -6192,7 +6195,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B47" s="17" t="n">
         <v>5</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="17" t="n">
         <v>5</v>
@@ -6270,7 +6273,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B49" s="17" t="n">
         <v>5</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B50" s="17" t="n">
         <v>5</v>
@@ -6348,7 +6351,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B51" s="17" t="n">
         <v>5</v>
@@ -6387,7 +6390,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B52" s="17" t="n">
         <v>5</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" s="17" t="n">
         <v>5</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B54" s="17" t="n">
         <v>5</v>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="17" t="n">
         <v>5</v>
@@ -6543,7 +6546,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" s="17" t="n">
         <v>5</v>
@@ -6593,7 +6596,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -6606,7 +6609,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -6652,7 +6655,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,17 +6663,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +6682,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -6700,28 +6703,28 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>2</v>
@@ -6773,7 +6776,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>2</v>
@@ -6811,7 +6814,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>2</v>
@@ -6849,7 +6852,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>2</v>
@@ -6887,7 +6890,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>2</v>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>2</v>
@@ -6963,7 +6966,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>2</v>
@@ -7001,7 +7004,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>2</v>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>2</v>
@@ -7077,7 +7080,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>2</v>
@@ -7115,7 +7118,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>2</v>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" s="17" t="n">
         <v>2</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" s="17" t="n">
         <v>2</v>
@@ -7229,7 +7232,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>2</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="17" t="n">
         <v>2</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="17" t="n">
         <v>2</v>
@@ -7343,7 +7346,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="17" t="n">
         <v>2</v>
@@ -7381,7 +7384,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>2</v>
@@ -7419,7 +7422,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>2</v>
@@ -7457,7 +7460,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>2</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>2</v>
@@ -7533,7 +7536,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>2</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>2</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>2</v>
@@ -7647,7 +7650,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>5</v>
@@ -7685,7 +7688,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>5</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>5</v>
@@ -7761,7 +7764,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36" s="17" t="n">
         <v>5</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B37" s="17" t="n">
         <v>5</v>
@@ -7837,7 +7840,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="17" t="n">
         <v>5</v>
@@ -7875,7 +7878,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="17" t="n">
         <v>5</v>
@@ -7913,7 +7916,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B40" s="17" t="n">
         <v>5</v>
@@ -7951,7 +7954,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B41" s="17" t="n">
         <v>5</v>
@@ -7989,7 +7992,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="17" t="n">
         <v>5</v>
@@ -8027,7 +8030,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B43" s="17" t="n">
         <v>5</v>
@@ -8065,7 +8068,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" s="17" t="n">
         <v>5</v>
@@ -8103,7 +8106,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B45" s="17" t="n">
         <v>5</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="17" t="n">
         <v>5</v>
@@ -8179,7 +8182,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B47" s="17" t="n">
         <v>5</v>
@@ -8217,7 +8220,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="17" t="n">
         <v>5</v>
@@ -8255,7 +8258,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B49" s="17" t="n">
         <v>5</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B50" s="17" t="n">
         <v>5</v>
@@ -8331,7 +8334,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B51" s="17" t="n">
         <v>5</v>
@@ -8369,7 +8372,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B52" s="17" t="n">
         <v>5</v>
@@ -8407,7 +8410,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" s="17" t="n">
         <v>5</v>
@@ -8445,7 +8448,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B54" s="17" t="n">
         <v>5</v>
@@ -8483,7 +8486,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="17" t="n">
         <v>5</v>
@@ -8521,7 +8524,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" s="17" t="n">
         <v>5</v>
@@ -8570,7 +8573,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8632,20 +8635,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,33 +8669,33 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>2</v>
@@ -8721,7 +8724,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>2</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>2</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>2</v>
@@ -8808,7 +8811,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>2</v>
@@ -8837,7 +8840,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>2</v>
@@ -8866,7 +8869,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>2</v>
@@ -8895,7 +8898,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>2</v>
@@ -8924,7 +8927,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>2</v>
@@ -8953,7 +8956,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>2</v>
@@ -8982,7 +8985,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>2</v>
@@ -9011,7 +9014,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>2</v>
@@ -9040,7 +9043,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>2</v>
@@ -9069,7 +9072,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>2</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>2</v>
@@ -9127,7 +9130,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>2</v>
@@ -9156,7 +9159,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>2</v>
@@ -9185,7 +9188,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>2</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>2</v>
@@ -9243,7 +9246,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>2</v>
@@ -9272,7 +9275,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>2</v>
@@ -9301,7 +9304,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>2</v>
@@ -9330,7 +9333,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>2</v>
@@ -9359,7 +9362,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>2</v>
@@ -9388,7 +9391,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>5</v>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>5</v>
@@ -9446,7 +9449,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>5</v>
@@ -9475,7 +9478,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>5</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>5</v>
@@ -9533,7 +9536,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>5</v>
@@ -9562,7 +9565,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>5</v>
@@ -9591,7 +9594,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>5</v>
@@ -9620,7 +9623,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>5</v>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>5</v>
@@ -9678,7 +9681,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>5</v>
@@ -9707,7 +9710,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>5</v>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>5</v>
@@ -9765,7 +9768,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>5</v>
@@ -9794,7 +9797,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>5</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>5</v>
@@ -9852,7 +9855,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>5</v>
@@ -9881,7 +9884,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>5</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>5</v>
@@ -9939,7 +9942,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>5</v>
@@ -9968,7 +9971,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>5</v>
@@ -9997,7 +10000,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>5</v>
@@ -10026,7 +10029,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>5</v>
@@ -10055,7 +10058,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>5</v>
@@ -10084,12 +10087,12 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -10113,7 +10116,7 @@
   </sheetPr>
   <dimension ref="A1:Y633"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24692,8 +24695,8 @@
   </sheetPr>
   <dimension ref="A1:Y633"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24766,7 +24769,9 @@
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -24781,21 +24786,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -24810,21 +24817,23 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -24839,21 +24848,23 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -24868,21 +24879,23 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -24897,21 +24910,23 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -24926,21 +24941,23 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -24955,21 +24972,23 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -24984,21 +25003,23 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -25013,21 +25034,23 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -25042,21 +25065,23 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -25071,21 +25096,23 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -25100,21 +25127,23 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -25129,21 +25158,23 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>364</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -25158,21 +25189,23 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>537</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -25187,21 +25220,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>520</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -25216,21 +25251,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>573</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -25245,21 +25282,23 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>469</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -25274,21 +25313,23 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>438</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -25303,21 +25344,23 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>446</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -25332,21 +25375,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>362</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -25361,21 +25406,23 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>837</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -25390,21 +25437,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>883</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -25419,21 +25468,23 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>497</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -25448,21 +25499,23 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>978</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -25477,21 +25530,23 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>1567</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -25506,21 +25561,23 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>1257</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -25535,21 +25592,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>925</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -25564,21 +25623,23 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>1153</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -25593,21 +25654,23 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>857</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -25622,21 +25685,23 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>681</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -25651,21 +25716,23 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>1472</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -25680,21 +25747,23 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>1115</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -25709,21 +25778,23 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>1111</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -25738,21 +25809,23 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>1267</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -25767,21 +25840,23 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>1723</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -25796,21 +25871,23 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>1850</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -25825,21 +25902,23 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>1812</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -25854,21 +25933,23 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>1542</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -25883,21 +25964,23 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>1494</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -25912,21 +25995,23 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>1509</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -25941,21 +26026,23 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>1026</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -25970,21 +26057,23 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>1086</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -25999,21 +26088,23 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>1013</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
@@ -26028,21 +26119,23 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>1479</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -26057,21 +26150,23 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>1263</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -26086,21 +26181,23 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>1342</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -26115,21 +26212,23 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>2056</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -26144,21 +26243,23 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>2202</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -26173,21 +26274,23 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -26202,21 +26305,23 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>26</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -26231,21 +26336,23 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>18</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F59" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -26260,21 +26367,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F60" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -26289,21 +26398,23 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F61" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -26318,21 +26429,23 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B62" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -26347,21 +26460,23 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="7" t="n">
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -26376,21 +26491,23 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B64" s="7" t="n">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F64" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -26405,21 +26522,23 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B65" s="7" t="n">
         <v>15</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -26434,21 +26553,23 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -26463,21 +26584,23 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -26492,21 +26615,23 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B68" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
@@ -26527,15 +26652,17 @@
         <v>130</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -26556,15 +26683,17 @@
         <v>140</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
@@ -26585,15 +26714,17 @@
         <v>137</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -26614,15 +26745,17 @@
         <v>143</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F72" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
@@ -26643,15 +26776,17 @@
         <v>157</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
@@ -26672,15 +26807,17 @@
         <v>217</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
@@ -26695,21 +26832,23 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="7" t="n">
         <v>157</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
@@ -26724,21 +26863,23 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="7" t="n">
         <v>129</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
@@ -26753,21 +26894,23 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="7" t="n">
         <v>146</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -26782,21 +26925,23 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="7" t="n">
         <v>113</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
@@ -26811,21 +26956,23 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="7" t="n">
         <v>110</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
@@ -26840,21 +26987,23 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="7" t="n">
         <v>154</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
@@ -26875,15 +27024,17 @@
         <v>616</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -26904,15 +27055,17 @@
         <v>585</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
@@ -26933,15 +27086,17 @@
         <v>629</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
@@ -26962,15 +27117,17 @@
         <v>654</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
@@ -26991,15 +27148,17 @@
         <v>836</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
@@ -27020,15 +27179,17 @@
         <v>726</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F86" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
@@ -27043,21 +27204,23 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" s="7" t="n">
         <v>641</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
@@ -27072,21 +27235,23 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="7" t="n">
         <v>597</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F88" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F88" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
@@ -27101,21 +27266,23 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" s="7" t="n">
         <v>549</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F89" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
@@ -27130,21 +27297,23 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" s="7" t="n">
         <v>670</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F90" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
@@ -27159,21 +27328,23 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B91" s="7" t="n">
         <v>590</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F91" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
@@ -27188,21 +27359,23 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B92" s="7" t="n">
         <v>602</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F92" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
@@ -27217,21 +27390,23 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B93" s="7" t="n">
         <v>997</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F93" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
@@ -27246,21 +27421,23 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" s="7" t="n">
         <v>828</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
@@ -27275,21 +27452,23 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="7" t="n">
         <v>887</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F95" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F95" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
@@ -27304,21 +27483,23 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" s="7" t="n">
         <v>1306</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F96" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
@@ -27333,21 +27514,23 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B97" s="7" t="n">
         <v>1053</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -27362,21 +27545,23 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B98" s="7" t="n">
         <v>1431</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F98" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F98" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
@@ -27391,21 +27576,23 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B99" s="7" t="n">
         <v>1126</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F99" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
@@ -27420,21 +27607,23 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="7" t="n">
         <v>1135</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
@@ -27449,21 +27638,23 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" s="7" t="n">
         <v>795</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F101" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
@@ -27478,21 +27669,23 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" s="7" t="n">
         <v>1292</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
@@ -27507,21 +27700,23 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="7" t="n">
         <v>1198</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F103" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F103" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -27536,21 +27731,23 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B104" s="7" t="n">
         <v>1249</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
@@ -32128,21 +32325,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32153,7 +32350,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -32175,46 +32372,46 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="L8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="M8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="N8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="O8" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="7"/>
@@ -32229,13 +32426,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>1000</v>
@@ -32276,13 +32473,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>1000</v>
@@ -32323,13 +32520,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1000</v>
@@ -32370,13 +32567,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>1000</v>
@@ -32417,13 +32614,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>1000</v>
@@ -32464,13 +32661,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>1000</v>
@@ -32511,13 +32708,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>10000</v>
@@ -32568,13 +32765,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>10000</v>
@@ -32625,13 +32822,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>10000</v>
@@ -32682,13 +32879,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>10000</v>
@@ -32739,13 +32936,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>10000</v>
@@ -32796,13 +32993,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>10000</v>
@@ -32853,13 +33050,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>10000</v>
@@ -32910,13 +33107,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>10000</v>
@@ -32967,13 +33164,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>10000</v>
@@ -33024,13 +33221,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>10000</v>
@@ -33081,13 +33278,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>10000</v>
@@ -33138,13 +33335,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>10000</v>
@@ -33195,13 +33392,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="n">
         <v>10000</v>
@@ -33252,13 +33449,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>10000</v>
@@ -33309,13 +33506,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>10000</v>
@@ -33366,13 +33563,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>100000</v>
@@ -33423,13 +33620,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>100000</v>
@@ -33480,13 +33677,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7" t="n">
         <v>10000</v>
@@ -33537,13 +33734,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="7" t="n">
         <v>10000</v>
@@ -33584,13 +33781,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>10000</v>
@@ -33631,13 +33828,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="7" t="n">
         <v>10000</v>
@@ -33678,13 +33875,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="n">
         <v>10000</v>
@@ -33725,13 +33922,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="n">
         <v>10000</v>
@@ -33772,13 +33969,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7" t="n">
         <v>10000</v>
@@ -33819,13 +34016,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7" t="n">
         <v>10000</v>
@@ -33876,13 +34073,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="7" t="n">
         <v>10000</v>
@@ -33933,13 +34130,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D41" s="7" t="n">
         <v>10000</v>
@@ -33990,13 +34187,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7" t="n">
         <v>10000</v>
@@ -34047,13 +34244,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" s="7" t="n">
         <v>10000</v>
@@ -34104,13 +34301,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="7" t="n">
         <v>10000</v>
@@ -34161,13 +34358,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" s="7" t="n">
         <v>10000</v>
@@ -34218,13 +34415,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" s="7" t="n">
         <v>10000</v>
@@ -34275,13 +34472,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="7" t="n">
         <v>10000</v>
@@ -34332,13 +34529,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D48" s="7" t="n">
         <v>10000</v>
@@ -34389,13 +34586,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" s="7" t="n">
         <v>10000</v>
@@ -34446,13 +34643,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" s="7" t="n">
         <v>10000</v>
@@ -34503,13 +34700,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" s="7" t="n">
         <v>10000</v>
@@ -34560,13 +34757,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7" t="n">
         <v>10000</v>
@@ -34617,13 +34814,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="7" t="n">
         <v>10000</v>
@@ -34674,13 +34871,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D54" s="7" t="n">
         <v>10000</v>
@@ -34731,13 +34928,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D55" s="7" t="n">
         <v>10000</v>
@@ -34788,13 +34985,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D56" s="7" t="n">
         <v>10000</v>
@@ -40289,7 +40486,7 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -40305,23 +40502,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40329,7 +40526,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -40348,19 +40545,19 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -40373,10 +40570,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>3.812</v>
@@ -40400,10 +40597,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>2.428</v>
@@ -40427,10 +40624,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>3.492</v>
@@ -40454,10 +40651,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>2.401</v>
@@ -40481,10 +40678,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>2.132</v>
@@ -40508,10 +40705,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>1.506</v>
@@ -40535,10 +40732,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>3.563</v>
@@ -40562,10 +40759,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>3.046</v>
@@ -40589,10 +40786,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>2.748</v>
@@ -40616,10 +40813,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>3.211</v>
@@ -40643,10 +40840,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>4.208</v>
@@ -40670,10 +40867,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>3.544</v>
@@ -40697,10 +40894,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>3.55</v>
@@ -40724,10 +40921,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>4.026</v>
@@ -40751,10 +40948,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3.233</v>
@@ -40778,10 +40975,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3.408</v>
@@ -40805,10 +41002,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3.347</v>
@@ -40832,10 +41029,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>2.6</v>
@@ -40859,10 +41056,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>3.307</v>
@@ -40886,10 +41083,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>3.652</v>
@@ -40913,10 +41110,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>3.317</v>
@@ -40940,10 +41137,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>2.846</v>
@@ -40967,10 +41164,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>3.496</v>
@@ -40994,10 +41191,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>3.029</v>
@@ -41021,10 +41218,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>3.269</v>
@@ -41048,10 +41245,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>2.741</v>
@@ -41075,10 +41272,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>2.748</v>
@@ -41102,10 +41299,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>2.387</v>
@@ -41129,10 +41326,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>4.638</v>
@@ -41156,10 +41353,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>3.247</v>
@@ -41183,10 +41380,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>3.618</v>
@@ -41210,10 +41407,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>2.499</v>
@@ -41237,10 +41434,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>2.347</v>
@@ -41264,10 +41461,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>2.711</v>
@@ -41291,10 +41488,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>4.032</v>
@@ -41318,10 +41515,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>2.287</v>
@@ -41345,10 +41542,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>3.573</v>
@@ -41372,10 +41569,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>2.059</v>
@@ -41399,10 +41596,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>4.093</v>
@@ -41426,10 +41623,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>2.061</v>
@@ -41453,10 +41650,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>3.919</v>
@@ -41480,10 +41677,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" s="7" t="n">
         <v>2.239</v>
@@ -41514,7 +41711,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -41524,7 +41721,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -41548,7 +41745,7 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -41566,7 +41763,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -41575,15 +41772,15 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41603,33 +41800,33 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="7"/>
@@ -41640,10 +41837,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -41654,10 +41851,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -41668,10 +41865,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -41682,10 +41879,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -41696,10 +41893,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -41710,10 +41907,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -41724,10 +41921,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -41738,10 +41935,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -41752,10 +41949,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -41766,10 +41963,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -41780,10 +41977,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -41794,10 +41991,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -41808,10 +42005,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -41822,10 +42019,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3.137</v>
@@ -41848,10 +42045,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>4.162</v>
@@ -41874,10 +42071,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>2.792</v>
@@ -41900,10 +42097,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3.718</v>
@@ -41926,10 +42123,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>3.2</v>
@@ -41952,10 +42149,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>3.668</v>
@@ -41978,10 +42175,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>3.395</v>
@@ -42004,10 +42201,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>3.616</v>
@@ -42030,10 +42227,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>3.465</v>
@@ -42056,10 +42253,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>4.369</v>
@@ -42082,10 +42279,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>3.935</v>
@@ -42108,10 +42305,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>3.561</v>
@@ -42134,10 +42331,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>3.332</v>
@@ -42160,10 +42357,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>3.614</v>
@@ -42186,10 +42383,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>4.461</v>
@@ -42212,10 +42409,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>3.504</v>
@@ -42238,10 +42435,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>4.456</v>
@@ -42264,10 +42461,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>2.192</v>
@@ -42290,10 +42487,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>2.498</v>
@@ -42316,10 +42513,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>4.308</v>
@@ -42342,10 +42539,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>5.286</v>
@@ -42368,10 +42565,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>2.833</v>
@@ -42394,10 +42591,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>3.418</v>
@@ -42420,10 +42617,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>2.652</v>
@@ -42446,10 +42643,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>1.922</v>
@@ -42472,10 +42669,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>4.417</v>
@@ -42498,10 +42695,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>4.105</v>
@@ -42524,10 +42721,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" s="7" t="n">
         <v>2.225</v>
@@ -42550,12 +42747,12 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -42579,7 +42776,7 @@
   </sheetPr>
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -42596,25 +42793,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -42623,10 +42820,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42652,22 +42849,22 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -42681,7 +42878,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
@@ -42712,7 +42909,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
@@ -42743,7 +42940,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>1</v>
@@ -42774,7 +42971,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
@@ -42805,7 +43002,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
@@ -42836,7 +43033,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>1</v>
@@ -42867,7 +43064,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>1</v>
@@ -42898,7 +43095,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>1</v>
@@ -42929,7 +43126,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
@@ -42960,7 +43157,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>1</v>
@@ -42991,7 +43188,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>1</v>
@@ -43022,7 +43219,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>1</v>
@@ -43053,7 +43250,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>1</v>
@@ -43084,7 +43281,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>1</v>
@@ -43115,7 +43312,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>1</v>
@@ -43146,7 +43343,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -43177,7 +43374,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>1</v>
@@ -43203,7 +43400,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>1</v>
@@ -43229,7 +43426,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>1</v>
@@ -43255,7 +43452,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>1</v>
@@ -43281,7 +43478,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>1</v>
@@ -43307,7 +43504,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>1</v>
@@ -43333,7 +43530,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>1</v>
@@ -43359,7 +43556,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>1</v>
@@ -43385,7 +43582,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>2</v>
@@ -43411,7 +43608,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>2</v>
@@ -43437,7 +43634,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>2</v>
@@ -43463,7 +43660,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>2</v>
@@ -43489,7 +43686,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>2</v>
@@ -43515,7 +43712,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>2</v>
@@ -43540,7 +43737,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>2</v>
@@ -43565,7 +43762,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>2</v>
@@ -43590,7 +43787,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>2</v>
@@ -43615,7 +43812,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>2</v>
@@ -43640,7 +43837,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>2</v>
@@ -43665,7 +43862,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>2</v>
@@ -43690,7 +43887,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>2</v>
@@ -43715,7 +43912,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>2</v>
@@ -43740,7 +43937,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>2</v>
@@ -43765,7 +43962,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>2</v>
@@ -43790,7 +43987,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>2</v>
@@ -43813,7 +44010,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>2</v>
@@ -43836,7 +44033,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>2</v>
@@ -43859,7 +44056,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>2</v>
@@ -43882,7 +44079,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>2</v>
@@ -43905,7 +44102,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>2</v>
@@ -43928,7 +44125,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>2</v>
@@ -43951,7 +44148,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>2</v>
@@ -43974,7 +44171,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>3</v>
@@ -43997,7 +44194,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>3</v>
@@ -44020,7 +44217,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>3</v>
@@ -44043,7 +44240,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>3</v>
@@ -44066,7 +44263,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" s="7" t="n">
         <v>3</v>
@@ -44089,7 +44286,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B62" s="7" t="n">
         <v>3</v>
@@ -44112,7 +44309,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="7" t="n">
         <v>3</v>
@@ -44135,7 +44332,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="n">
         <v>3</v>
@@ -44158,7 +44355,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="7" t="n">
         <v>3</v>
@@ -44181,7 +44378,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B66" s="7" t="n">
         <v>3</v>
@@ -44204,7 +44401,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B67" s="7" t="n">
         <v>3</v>
@@ -44227,7 +44424,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B68" s="7" t="n">
         <v>3</v>
@@ -44250,7 +44447,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B69" s="7" t="n">
         <v>3</v>
@@ -44273,7 +44470,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="7" t="n">
         <v>3</v>
@@ -44296,7 +44493,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="7" t="n">
         <v>3</v>
@@ -44319,7 +44516,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" s="7" t="n">
         <v>3</v>
@@ -44342,7 +44539,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" s="7" t="n">
         <v>3</v>
@@ -44365,7 +44562,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" s="7" t="n">
         <v>3</v>
@@ -44388,7 +44585,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" s="7" t="n">
         <v>3</v>
@@ -44411,7 +44608,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="7" t="n">
         <v>3</v>
@@ -44434,7 +44631,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" s="7" t="n">
         <v>3</v>
@@ -44457,7 +44654,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B78" s="7" t="n">
         <v>3</v>
@@ -44480,7 +44677,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" s="7" t="n">
         <v>3</v>
@@ -44503,7 +44700,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="7" t="n">
         <v>3</v>
@@ -44526,7 +44723,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="7" t="n">
         <v>4</v>
@@ -44549,7 +44746,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" s="7" t="n">
         <v>4</v>
@@ -44572,7 +44769,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B83" s="7" t="n">
         <v>4</v>
@@ -44595,7 +44792,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B84" s="7" t="n">
         <v>4</v>
@@ -44618,7 +44815,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="7" t="n">
         <v>4</v>
@@ -44641,7 +44838,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="7" t="n">
         <v>4</v>
@@ -44664,7 +44861,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B87" s="7" t="n">
         <v>4</v>
@@ -44687,7 +44884,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" s="7" t="n">
         <v>4</v>
@@ -44710,7 +44907,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="7" t="n">
         <v>4</v>
@@ -44733,7 +44930,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B90" s="7" t="n">
         <v>4</v>
@@ -44756,7 +44953,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B91" s="7" t="n">
         <v>4</v>
@@ -44779,7 +44976,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" s="7" t="n">
         <v>4</v>
@@ -44802,7 +44999,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" s="7" t="n">
         <v>4</v>
@@ -44825,7 +45022,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" s="7" t="n">
         <v>4</v>
@@ -44848,7 +45045,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" s="7" t="n">
         <v>4</v>
@@ -44871,7 +45068,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" s="7" t="n">
         <v>4</v>
@@ -44894,7 +45091,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B97" s="7" t="n">
         <v>4</v>
@@ -44917,7 +45114,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B98" s="7" t="n">
         <v>4</v>
@@ -44940,7 +45137,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B99" s="7" t="n">
         <v>4</v>
@@ -44963,7 +45160,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B100" s="7" t="n">
         <v>4</v>
@@ -44986,7 +45183,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B101" s="7" t="n">
         <v>4</v>
@@ -45009,7 +45206,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" s="7" t="n">
         <v>4</v>
@@ -45032,7 +45229,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B103" s="7" t="n">
         <v>4</v>
@@ -45055,7 +45252,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B104" s="7" t="n">
         <v>4</v>
@@ -45126,7 +45323,7 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -45143,13 +45340,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45157,23 +45354,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45192,29 +45389,29 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
@@ -45239,7 +45436,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
@@ -45264,7 +45461,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>1</v>
@@ -45289,7 +45486,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
@@ -45314,7 +45511,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
@@ -45339,7 +45536,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>1</v>
@@ -45364,7 +45561,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>1</v>
@@ -45389,7 +45586,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>1</v>
@@ -45414,7 +45611,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
@@ -45439,7 +45636,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>1</v>
@@ -45464,7 +45661,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>1</v>
@@ -45489,7 +45686,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>1</v>
@@ -45514,7 +45711,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>1</v>
@@ -45539,7 +45736,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>1</v>
@@ -45564,7 +45761,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>1</v>
@@ -45589,7 +45786,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -45614,7 +45811,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>1</v>
@@ -45640,7 +45837,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>1</v>
@@ -45666,7 +45863,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>1</v>
@@ -45692,7 +45889,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>1</v>
@@ -45718,7 +45915,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>1</v>
@@ -45744,7 +45941,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>1</v>
@@ -45770,7 +45967,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>1</v>
@@ -45796,7 +45993,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>1</v>
@@ -45822,7 +46019,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>2</v>
@@ -45848,7 +46045,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>2</v>
@@ -45874,7 +46071,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>2</v>
@@ -45900,7 +46097,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>2</v>
@@ -45926,7 +46123,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>2</v>
@@ -45952,7 +46149,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>2</v>
@@ -45977,7 +46174,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>2</v>
@@ -46002,7 +46199,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>2</v>
@@ -46027,7 +46224,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>2</v>
@@ -46052,7 +46249,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>2</v>
@@ -46077,7 +46274,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>2</v>
@@ -46102,7 +46299,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>2</v>
@@ -46127,7 +46324,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>2</v>
@@ -46152,7 +46349,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>2</v>
@@ -46177,7 +46374,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>2</v>
@@ -46202,7 +46399,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>2</v>
@@ -46227,7 +46424,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>2</v>
@@ -46250,7 +46447,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>2</v>
@@ -46273,7 +46470,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>2</v>
@@ -46296,7 +46493,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>2</v>
@@ -46319,7 +46516,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>2</v>
@@ -46342,7 +46539,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>2</v>
@@ -46365,7 +46562,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>2</v>
@@ -46388,7 +46585,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>2</v>
@@ -46411,7 +46608,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>3</v>
@@ -46434,7 +46631,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>3</v>
@@ -46457,7 +46654,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>3</v>
@@ -46480,7 +46677,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>3</v>
@@ -46503,7 +46700,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" s="7" t="n">
         <v>3</v>
@@ -46526,7 +46723,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B62" s="7" t="n">
         <v>3</v>
@@ -46549,7 +46746,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="7" t="n">
         <v>3</v>
@@ -46572,7 +46769,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="n">
         <v>3</v>
@@ -46595,7 +46792,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="7" t="n">
         <v>3</v>
@@ -46618,7 +46815,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B66" s="7" t="n">
         <v>3</v>
@@ -46641,7 +46838,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B67" s="7" t="n">
         <v>3</v>
@@ -46664,7 +46861,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B68" s="7" t="n">
         <v>3</v>
@@ -46687,7 +46884,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B69" s="7" t="n">
         <v>3</v>
@@ -46710,7 +46907,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="7" t="n">
         <v>3</v>
@@ -46733,7 +46930,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="7" t="n">
         <v>3</v>
@@ -46756,7 +46953,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" s="7" t="n">
         <v>3</v>
@@ -46779,7 +46976,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" s="7" t="n">
         <v>3</v>
@@ -46802,7 +46999,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" s="7" t="n">
         <v>3</v>
@@ -46825,7 +47022,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" s="7" t="n">
         <v>3</v>
@@ -46848,7 +47045,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="7" t="n">
         <v>3</v>
@@ -46871,7 +47068,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" s="7" t="n">
         <v>3</v>
@@ -46894,7 +47091,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B78" s="7" t="n">
         <v>3</v>
@@ -46917,7 +47114,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" s="7" t="n">
         <v>3</v>
@@ -46940,7 +47137,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="7" t="n">
         <v>3</v>
@@ -46963,7 +47160,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="7" t="n">
         <v>4</v>
@@ -46986,7 +47183,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" s="7" t="n">
         <v>4</v>
@@ -47009,7 +47206,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B83" s="7" t="n">
         <v>4</v>
@@ -47032,7 +47229,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B84" s="7" t="n">
         <v>4</v>
@@ -47055,7 +47252,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="7" t="n">
         <v>4</v>
@@ -47078,7 +47275,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="7" t="n">
         <v>4</v>
@@ -47101,7 +47298,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B87" s="7" t="n">
         <v>4</v>
@@ -47124,7 +47321,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" s="7" t="n">
         <v>4</v>
@@ -47147,7 +47344,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="7" t="n">
         <v>4</v>
@@ -47170,7 +47367,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B90" s="7" t="n">
         <v>4</v>
@@ -47193,7 +47390,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B91" s="7" t="n">
         <v>4</v>
@@ -47216,7 +47413,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" s="7" t="n">
         <v>4</v>
@@ -47239,7 +47436,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" s="7" t="n">
         <v>4</v>
@@ -47262,7 +47459,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" s="7" t="n">
         <v>4</v>
@@ -47285,7 +47482,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" s="7" t="n">
         <v>4</v>
@@ -47308,7 +47505,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" s="7" t="n">
         <v>4</v>
@@ -47331,7 +47528,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B97" s="7" t="n">
         <v>4</v>
@@ -47354,7 +47551,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B98" s="7" t="n">
         <v>4</v>
@@ -47377,7 +47574,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B99" s="7" t="n">
         <v>4</v>
@@ -47400,7 +47597,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B100" s="7" t="n">
         <v>4</v>
@@ -47423,7 +47620,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B101" s="7" t="n">
         <v>4</v>
@@ -47446,7 +47643,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" s="7" t="n">
         <v>4</v>
@@ -47469,7 +47666,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B103" s="7" t="n">
         <v>4</v>
@@ -47492,7 +47689,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B104" s="7" t="n">
         <v>4</v>
@@ -47572,15 +47769,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -47589,7 +47786,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47626,28 +47823,28 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -47669,7 +47866,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>2</v>
@@ -47714,7 +47911,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>2</v>
@@ -47759,7 +47956,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>2</v>
@@ -47804,7 +48001,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>2</v>
@@ -47849,7 +48046,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>2</v>
@@ -47894,7 +48091,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>2</v>
@@ -47939,7 +48136,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>2</v>
@@ -47984,7 +48181,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>2</v>
@@ -48029,7 +48226,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>2</v>
@@ -48074,7 +48271,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>2</v>
@@ -48119,7 +48316,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>2</v>
@@ -48164,7 +48361,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>2</v>
@@ -48209,7 +48406,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>2</v>
@@ -48254,7 +48451,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>2</v>
@@ -48299,7 +48496,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>2</v>
@@ -48344,7 +48541,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>2</v>
@@ -48389,7 +48586,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>2</v>
@@ -48434,7 +48631,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>2</v>
@@ -48479,7 +48676,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>5</v>
@@ -48524,7 +48721,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>5</v>
@@ -48569,7 +48766,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>5</v>
@@ -48614,7 +48811,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>5</v>
@@ -48659,7 +48856,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>5</v>
@@ -48704,7 +48901,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>5</v>
@@ -48749,7 +48946,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>5</v>
@@ -48794,7 +48991,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>5</v>
@@ -48839,7 +49036,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>5</v>
@@ -48884,7 +49081,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>5</v>
@@ -48929,7 +49126,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>5</v>
@@ -48974,7 +49171,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>5</v>
@@ -49019,7 +49216,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>5</v>
@@ -49064,7 +49261,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>5</v>
@@ -49109,7 +49306,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>5</v>
@@ -49154,7 +49351,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>5</v>
@@ -49199,7 +49396,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>5</v>
@@ -49244,7 +49441,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>5</v>
@@ -49313,7 +49510,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -49340,7 +49537,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
